--- a/medicine/Hématologie/Sang_veineux_mêlé/Sang_veineux_mêlé.xlsx
+++ b/medicine/Hématologie/Sang_veineux_mêlé/Sang_veineux_mêlé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sang_veineux_m%C3%AAl%C3%A9</t>
+          <t>Sang_veineux_mêlé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le sang veineux mêlé est celui que l'on trouve dans les cavités droites du cœur (oreillette, ventricule droit). Pour diverses raisons techniques, il est possible de se contenter, dans le but de faire des analyses, du sang prélevé dans les veines caves supérieure ou inférieure. Cette pratique permet d'éviter une ponction faite directement dans le cœur.
 Les valeurs normales, chez un individu sain sont : 
